--- a/Documents/Work Plan.xlsx
+++ b/Documents/Work Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerard\Desktop\GameProject extras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerard\Desktop\GAME_PROJECT\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1462B721-148B-4E8B-B06C-7EB59E3DFA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC364C-2669-4A22-B8C8-2F36F99279BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8A2F098-CC50-4324-B58C-2569A1A6A8B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B8A2F098-CC50-4324-B58C-2569A1A6A8B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Items to be completed</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Menu background</t>
+  </si>
+  <si>
+    <t>kinda</t>
+  </si>
+  <si>
+    <t>test area</t>
   </si>
 </sst>
 </file>
@@ -534,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E69ADF-1AD9-47A5-A4E5-51C37CA7F822}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,10 +595,16 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -672,10 +684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39C550F-FECB-4956-BD77-DDB8D5EFD819}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,13 +743,18 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CF3C1F-B3D6-4DD6-9574-4685968F2BC2}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
